--- a/BackTest/2019-10-31 BackTest DAC.xlsx
+++ b/BackTest/2019-10-31 BackTest DAC.xlsx
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -8431,13 +8431,17 @@
         <v>3.26666666666667</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K230" t="n">
+        <v>3.24</v>
+      </c>
       <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
@@ -8472,8 +8476,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8501,14 +8511,22 @@
         <v>3.283333333333337</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K232" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8536,13 +8554,17 @@
         <v>3.283333333333337</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K233" t="n">
+        <v>3.29</v>
+      </c>
       <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
@@ -8577,8 +8599,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8612,8 +8640,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8921,20 +8955,14 @@
         <v>3.223333333333339</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8962,20 +8990,14 @@
         <v>3.246666666666673</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9003,20 +9025,14 @@
         <v>3.263333333333339</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>3.29</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9044,20 +9060,14 @@
         <v>3.276666666666673</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9085,20 +9095,14 @@
         <v>3.273333333333339</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9126,20 +9130,14 @@
         <v>3.260000000000006</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9167,20 +9165,14 @@
         <v>3.256666666666673</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9208,20 +9200,14 @@
         <v>3.260000000000006</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9249,20 +9235,14 @@
         <v>3.266666666666673</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9290,20 +9270,14 @@
         <v>3.263333333333339</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9331,20 +9305,14 @@
         <v>3.270000000000006</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9372,20 +9340,14 @@
         <v>3.273333333333339</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9413,20 +9375,14 @@
         <v>3.276666666666673</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9454,20 +9410,14 @@
         <v>3.270000000000006</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9495,20 +9445,14 @@
         <v>3.260000000000006</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>3.25</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9536,20 +9480,14 @@
         <v>3.263333333333339</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9577,20 +9515,14 @@
         <v>3.266666666666673</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9618,20 +9550,14 @@
         <v>3.280000000000006</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9659,20 +9585,14 @@
         <v>3.280000000000006</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9700,20 +9620,14 @@
         <v>3.276666666666673</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9741,20 +9655,14 @@
         <v>3.266666666666673</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9782,20 +9690,14 @@
         <v>3.260000000000006</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9823,20 +9725,14 @@
         <v>3.263333333333339</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9864,20 +9760,14 @@
         <v>3.263333333333339</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9905,20 +9795,14 @@
         <v>3.263333333333339</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9946,20 +9830,14 @@
         <v>3.260000000000006</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>3.25</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9987,20 +9865,14 @@
         <v>3.260000000000006</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>3.25</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10028,20 +9900,14 @@
         <v>3.256666666666673</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10069,20 +9935,14 @@
         <v>3.260000000000006</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>3.29</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10110,20 +9970,14 @@
         <v>3.256666666666673</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10151,20 +10005,14 @@
         <v>3.266666666666673</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10192,20 +10040,14 @@
         <v>3.260000000000006</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10233,20 +10075,14 @@
         <v>3.266666666666673</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10274,20 +10110,14 @@
         <v>3.270000000000006</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>3.29</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10315,20 +10145,14 @@
         <v>3.276666666666673</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10356,20 +10180,14 @@
         <v>3.276666666666673</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10397,20 +10215,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10438,20 +10250,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10479,20 +10285,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10520,20 +10320,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10561,20 +10355,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10602,20 +10390,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10643,20 +10425,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10684,20 +10460,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10725,20 +10495,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10766,20 +10530,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10807,20 +10565,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10848,20 +10600,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10889,20 +10635,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10930,20 +10670,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10971,20 +10705,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11012,20 +10740,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11053,20 +10775,14 @@
         <v>3.273333333333339</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11094,20 +10810,14 @@
         <v>3.273333333333339</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11135,20 +10845,14 @@
         <v>3.273333333333339</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11176,20 +10880,14 @@
         <v>3.270000000000005</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11217,20 +10915,14 @@
         <v>3.276666666666672</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>3.29</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11258,20 +10950,14 @@
         <v>3.276666666666672</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11306,11 +10992,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11338,20 +11020,14 @@
         <v>3.280000000000005</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11386,11 +11062,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11425,11 +11097,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11464,11 +11132,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11496,20 +11160,14 @@
         <v>3.280000000000005</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>3.29</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11537,20 +11195,14 @@
         <v>3.286666666666671</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>3.29</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11585,11 +11237,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11624,11 +11272,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11663,11 +11307,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11702,11 +11342,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11737,16 +11373,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11774,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
@@ -11809,7 +11443,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
@@ -11844,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
@@ -11879,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
@@ -12051,20 +11685,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12092,20 +11720,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12133,20 +11755,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12174,20 +11790,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12215,20 +11825,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12256,20 +11860,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12297,20 +11895,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12338,20 +11930,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12379,20 +11965,14 @@
         <v>3.260000000000005</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12420,20 +12000,14 @@
         <v>3.273333333333337</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12461,20 +12035,14 @@
         <v>3.283333333333338</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>3.29</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12502,20 +12070,14 @@
         <v>3.286666666666671</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12550,11 +12112,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12589,11 +12147,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12621,20 +12175,14 @@
         <v>3.260000000000005</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12662,20 +12210,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12703,20 +12245,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12744,20 +12280,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12785,20 +12315,14 @@
         <v>3.273333333333337</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12826,20 +12350,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12867,20 +12385,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12908,20 +12420,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12949,20 +12455,14 @@
         <v>3.276666666666671</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12990,20 +12490,14 @@
         <v>3.280000000000004</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13031,20 +12525,14 @@
         <v>3.280000000000004</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13072,20 +12560,14 @@
         <v>3.280000000000004</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13113,20 +12595,14 @@
         <v>3.280000000000004</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13161,11 +12637,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13200,11 +12672,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13239,11 +12707,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13278,11 +12742,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13317,11 +12777,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13349,20 +12805,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13390,20 +12840,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13431,20 +12875,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13472,20 +12910,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13513,20 +12945,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13554,20 +12980,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13595,20 +13015,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13636,20 +13050,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13677,20 +13085,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13718,20 +13120,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13759,20 +13155,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13800,20 +13190,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13841,20 +13225,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13882,20 +13260,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13923,20 +13295,14 @@
         <v>3.260000000000005</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13964,20 +13330,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14005,20 +13365,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14046,20 +13400,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14087,20 +13435,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14128,20 +13470,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14169,20 +13505,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14210,20 +13540,14 @@
         <v>3.253333333333338</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14251,20 +13575,14 @@
         <v>3.243333333333338</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>3.24</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14292,20 +13610,14 @@
         <v>3.250000000000005</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14333,20 +13645,14 @@
         <v>3.260000000000005</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14374,20 +13680,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14415,20 +13715,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14456,20 +13750,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14497,20 +13785,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14538,20 +13820,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14579,20 +13855,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14620,20 +13890,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14661,20 +13925,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14702,20 +13960,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14743,20 +13995,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14784,20 +14030,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14825,20 +14065,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14866,20 +14100,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14907,20 +14135,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14948,20 +14170,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14989,20 +14205,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15030,20 +14240,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15071,20 +14275,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15112,20 +14310,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15153,20 +14345,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15194,20 +14380,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15235,20 +14415,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15276,20 +14450,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15317,20 +14485,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15358,20 +14520,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15399,20 +14555,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15440,20 +14590,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
       </c>
-      <c r="J405" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15481,20 +14625,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
       </c>
-      <c r="J406" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15522,20 +14660,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
       </c>
-      <c r="J407" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15563,20 +14695,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
       </c>
-      <c r="J408" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15604,20 +14730,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
       </c>
-      <c r="J409" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15645,20 +14765,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
       </c>
-      <c r="J410" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15686,20 +14800,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
       </c>
-      <c r="J411" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15727,20 +14835,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
       </c>
-      <c r="J412" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15768,20 +14870,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
       </c>
-      <c r="J413" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15809,20 +14905,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="J414" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15850,20 +14940,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
       </c>
-      <c r="J415" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15891,20 +14975,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15932,20 +15010,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15973,20 +15045,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16014,20 +15080,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16055,20 +15115,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16096,20 +15150,14 @@
         <v>3.256666666666671</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>3.25</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16137,20 +15185,14 @@
         <v>3.256666666666671</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16178,20 +15220,14 @@
         <v>3.256666666666671</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16219,20 +15255,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>3.25</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16260,20 +15290,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16301,20 +15325,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16342,20 +15360,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16383,20 +15395,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16424,20 +15430,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16465,20 +15465,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16506,20 +15500,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16547,20 +15535,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16588,20 +15570,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16629,20 +15605,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16670,20 +15640,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16711,20 +15675,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16752,20 +15710,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16793,20 +15745,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16834,20 +15780,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16875,20 +15815,14 @@
         <v>3.260000000000005</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16916,20 +15850,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16957,20 +15885,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16998,20 +15920,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17039,20 +15955,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17080,20 +15990,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17121,20 +16025,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17162,20 +16060,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17203,20 +16095,14 @@
         <v>3.270000000000004</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17244,20 +16130,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17285,20 +16165,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17326,20 +16200,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17367,20 +16235,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17408,20 +16270,14 @@
         <v>3.266666666666671</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17449,20 +16305,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17490,20 +16340,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17531,20 +16375,14 @@
         <v>3.260000000000005</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>3.26</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17572,20 +16410,14 @@
         <v>3.263333333333338</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-31 BackTest DAC.xlsx
+++ b/BackTest/2019-10-31 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>287917.752</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>287917.752</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>287917.752</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>287917.752</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>287917.752</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>287917.752</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>287917.752</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>287917.752</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>287917.752</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>287917.752</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>287917.752</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>287917.752</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>287917.752</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>287917.752</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>287917.752</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-20535.95600000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>259254.682</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-38226.03600000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>272674.605</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>532235.26</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>421523.485</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>135582.609</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>372549.757</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>399021.443</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>399021.443</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>399021.443</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-258712.727</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-13906.01800000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1421873.0132</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1901901.8601</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1901901.8601</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1575358.9431</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1847767.6101</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1414817.4741</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1535164.3541</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1622742.1381</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1606439.6751</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1606439.6751</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1345086.1531</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1549976.2271</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1549976.2271</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1379404.6508</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1379404.6508</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1379394.6508</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1659023.7188</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1664902.5688</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1660177.1069</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1852816.5929</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1962816.5929</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1962816.5929</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1962805.5929</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1779979.6161</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1799979.6161</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1799979.6161</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1976942.607</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1976942.607</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1976932.607</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2084580.948</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2084580.948</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2262341.016</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2262341.016</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2262341.016</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2198502.4952</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2199571.0293</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-2719718.086199999</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2462550.899199999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-2615433.1562</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-3006893.5285</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-3006893.5285</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2639543.294799999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -11704,14 +11704,10 @@
         <v>-5599851.904108385</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J343" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
@@ -11741,19 +11737,11 @@
         <v>-5599851.904108385</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J344" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11785,14 +11773,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12217,14 +12199,10 @@
         <v>-5612689.150108385</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J358" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
@@ -12257,1225 +12235,1053 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K359" t="inlineStr">
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C360" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D360" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E360" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F360" t="n">
+        <v>254353.891</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-5867033.041108385</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="C361" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D361" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E361" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F361" t="n">
+        <v>12</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-5867021.041108385</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C362" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D362" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E362" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F362" t="n">
+        <v>4022.67</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-5871043.711108385</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C363" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D363" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E363" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F363" t="n">
+        <v>30398.6</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-5901442.311108384</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C364" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D364" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E364" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F364" t="n">
+        <v>458891.8556</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-5901442.311108384</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C365" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D365" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E365" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F365" t="n">
+        <v>369143.2747</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-5532299.036408384</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="C366" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D366" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E366" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F366" t="n">
+        <v>10</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-5532289.036408384</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="C367" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D367" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E367" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F367" t="n">
+        <v>15512.9375</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-5532289.036408384</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C368" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D368" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E368" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F368" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-5532289.036408384</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C369" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D369" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E369" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F369" t="n">
+        <v>12983.65</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-5519305.386408384</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="C370" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D370" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E370" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="F370" t="n">
+        <v>10</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-5519295.386408384</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C371" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D371" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E371" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F371" t="n">
+        <v>8.295999999999999</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-5519303.682408384</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="C372" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D372" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E372" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F372" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-5539303.682408384</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C373" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D373" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E373" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F373" t="n">
+        <v>10</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-5539293.682408384</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="C374" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D374" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E374" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F374" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-5569293.682408384</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="C375" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D375" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E375" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F375" t="n">
+        <v>994210.6864</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-6563504.368808384</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C376" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D376" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E376" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F376" t="n">
+        <v>10</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-6563494.368808384</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="C377" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D377" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E377" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F377" t="n">
+        <v>314021.3127</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-6877515.681508384</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="C378" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D378" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E378" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F378" t="n">
+        <v>4077.6094</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-6873438.072108383</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C379" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D379" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E379" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F379" t="n">
+        <v>320873.485</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-7194311.557108384</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C380" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D380" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E380" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F380" t="n">
+        <v>314876.289</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-6879435.268108384</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C381" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D381" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E381" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F381" t="n">
+        <v>244806.709</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-6879435.268108384</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C382" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D382" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E382" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F382" t="n">
+        <v>241064.766</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-7120500.034108384</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="C383" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D383" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E383" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F383" t="n">
+        <v>295175.492</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-6825324.542108384</v>
+      </c>
+      <c r="H383" t="n">
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J383" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="C384" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D384" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E384" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F384" t="n">
+        <v>133473.432</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-6825324.542108384</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K384" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="C360" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D360" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E360" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="F360" t="n">
-        <v>254353.891</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-5867033.041108385</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K360" t="inlineStr">
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C385" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D385" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E385" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F385" t="n">
+        <v>162991.831</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-6988316.373108384</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="C386" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="D386" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E386" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F386" t="n">
+        <v>242233.951</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-6746082.422108384</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C387" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D387" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E387" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F387" t="n">
+        <v>306181.175</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-7052263.597108384</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="C388" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D388" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E388" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F388" t="n">
+        <v>309371.097</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-7052263.597108384</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C389" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D389" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E389" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F389" t="n">
+        <v>22872.0858</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-7052263.597108384</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="C390" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D390" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E390" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F390" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-7022263.597108384</v>
+      </c>
+      <c r="H390" t="n">
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="C361" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D361" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E361" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="F361" t="n">
-        <v>12</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-5867021.041108385</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="C362" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="D362" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E362" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="F362" t="n">
-        <v>4022.67</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-5871043.711108385</v>
-      </c>
-      <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="J362" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="C363" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D363" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E363" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="F363" t="n">
-        <v>30398.6</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-5901442.311108384</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="C364" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D364" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E364" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="F364" t="n">
-        <v>458891.8556</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-5901442.311108384</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C365" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="D365" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E365" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F365" t="n">
-        <v>369143.2747</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-5532299.036408384</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="C366" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D366" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E366" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="F366" t="n">
-        <v>10</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-5532289.036408384</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="C367" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D367" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E367" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="F367" t="n">
-        <v>15512.9375</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-5532289.036408384</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C368" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D368" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E368" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="F368" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-5532289.036408384</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C369" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D369" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E369" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="F369" t="n">
-        <v>12983.65</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-5519305.386408384</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="C370" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="D370" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="E370" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="F370" t="n">
-        <v>10</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-5519295.386408384</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C371" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D371" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E371" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F371" t="n">
-        <v>8.295999999999999</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-5519303.682408384</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="C372" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D372" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E372" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="F372" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-5539303.682408384</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C373" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D373" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E373" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F373" t="n">
-        <v>10</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-5539293.682408384</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="C374" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="D374" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E374" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="F374" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-5569293.682408384</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="C375" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D375" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="E375" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F375" t="n">
-        <v>994210.6864</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-6563504.368808384</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="C376" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="D376" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="E376" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="F376" t="n">
-        <v>10</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-6563494.368808384</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="C377" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="D377" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E377" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F377" t="n">
-        <v>314021.3127</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-6877515.681508384</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="C378" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D378" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E378" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="F378" t="n">
-        <v>4077.6094</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-6873438.072108383</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C379" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D379" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="E379" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F379" t="n">
-        <v>320873.485</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-7194311.557108384</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C380" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D380" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E380" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F380" t="n">
-        <v>314876.289</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-6879435.268108384</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C381" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D381" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E381" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F381" t="n">
-        <v>244806.709</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-6879435.268108384</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C382" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D382" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="E382" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F382" t="n">
-        <v>241064.766</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-7120500.034108384</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="C383" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D383" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E383" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="F383" t="n">
-        <v>295175.492</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-6825324.542108384</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="C384" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D384" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E384" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="F384" t="n">
-        <v>133473.432</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-6825324.542108384</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C385" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D385" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="E385" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F385" t="n">
-        <v>162991.831</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-6988316.373108384</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="C386" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="D386" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E386" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="F386" t="n">
-        <v>242233.951</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-6746082.422108384</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C387" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D387" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="E387" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F387" t="n">
-        <v>306181.175</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-7052263.597108384</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="C388" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D388" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="E388" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F388" t="n">
-        <v>309371.097</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-7052263.597108384</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C389" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D389" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="E389" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F389" t="n">
-        <v>22872.0858</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-7052263.597108384</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="C390" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D390" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E390" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F390" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-7022263.597108384</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13507,9 +13313,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13546,9 +13350,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13585,9 +13387,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13624,9 +13424,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13663,9 +13461,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13702,9 +13498,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13741,9 +13535,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13780,9 +13572,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13819,9 +13609,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13858,9 +13646,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13897,9 +13683,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13936,9 +13720,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13975,9 +13757,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14014,9 +13794,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14053,9 +13831,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14092,9 +13868,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14131,9 +13905,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14170,9 +13942,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14209,9 +13979,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14248,9 +14016,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14287,9 +14053,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14326,9 +14090,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14365,9 +14127,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14404,9 +14164,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14443,9 +14201,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14482,9 +14238,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14521,9 +14275,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14560,9 +14312,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14599,9 +14349,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14638,9 +14386,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14677,9 +14423,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14716,9 +14460,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14755,9 +14497,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14794,9 +14534,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14833,9 +14571,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14872,9 +14608,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14911,9 +14645,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14950,9 +14682,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14989,9 +14719,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15025,12 +14753,12 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15064,12 +14792,12 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15103,12 +14831,12 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15142,12 +14870,12 @@
         <v>-7307078.455508383</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15181,12 +14909,12 @@
         <v>-7311658.348308383</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15220,14 +14948,12 @@
         <v>-7311658.348308383</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>3.24</v>
       </c>
-      <c r="J435" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15261,14 +14987,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>3.24</v>
       </c>
-      <c r="J436" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15302,14 +15026,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>3.27</v>
       </c>
-      <c r="J437" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15343,14 +15065,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>3.27</v>
       </c>
-      <c r="J438" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15384,14 +15104,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>3.27</v>
       </c>
-      <c r="J439" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15425,12 +15143,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15464,14 +15182,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>3.27</v>
       </c>
-      <c r="J441" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15505,12 +15221,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15544,14 +15260,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>3.27</v>
       </c>
-      <c r="J443" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15585,12 +15299,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15624,12 +15338,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15663,14 +15377,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>3.27</v>
       </c>
-      <c r="J446" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15704,14 +15416,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>3.27</v>
       </c>
-      <c r="J447" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15745,14 +15455,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>3.27</v>
       </c>
-      <c r="J448" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15786,14 +15494,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>3.27</v>
       </c>
-      <c r="J449" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15827,12 +15533,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15866,14 +15572,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>3.27</v>
       </c>
-      <c r="J451" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15907,12 +15611,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15946,14 +15650,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>3.27</v>
       </c>
-      <c r="J453" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15987,12 +15689,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16026,14 +15728,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>3.27</v>
       </c>
-      <c r="J455" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16067,14 +15767,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>3.27</v>
       </c>
-      <c r="J456" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16108,14 +15806,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>3.27</v>
       </c>
-      <c r="J457" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16149,14 +15845,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>3.27</v>
       </c>
-      <c r="J458" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16190,14 +15884,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>3.27</v>
       </c>
-      <c r="J459" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,14 +15923,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>3.27</v>
       </c>
-      <c r="J460" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16272,14 +15962,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>3.27</v>
       </c>
-      <c r="J461" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16313,14 +16001,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>3.27</v>
       </c>
-      <c r="J462" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16354,14 +16040,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>3.27</v>
       </c>
-      <c r="J463" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16395,14 +16079,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>3.27</v>
       </c>
-      <c r="J464" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16436,14 +16118,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>3.27</v>
       </c>
-      <c r="J465" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16477,14 +16157,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>3.27</v>
       </c>
-      <c r="J466" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16518,14 +16196,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>3.27</v>
       </c>
-      <c r="J467" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16559,14 +16235,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>3.27</v>
       </c>
-      <c r="J468" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16600,14 +16274,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>3.27</v>
       </c>
-      <c r="J469" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16641,14 +16313,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>3.27</v>
       </c>
-      <c r="J470" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16682,14 +16352,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>3.27</v>
       </c>
-      <c r="J471" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16723,14 +16391,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>3.27</v>
       </c>
-      <c r="J472" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16764,14 +16430,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>3.27</v>
       </c>
-      <c r="J473" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16805,14 +16469,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>3.27</v>
       </c>
-      <c r="J474" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16846,14 +16508,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>3.27</v>
       </c>
-      <c r="J475" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16887,14 +16547,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>3.27</v>
       </c>
-      <c r="J476" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16928,14 +16586,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>3.27</v>
       </c>
-      <c r="J477" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16969,14 +16625,12 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>3.27</v>
       </c>
-      <c r="J478" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17010,14 +16664,12 @@
         <v>-7304829.134508383</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>3.27</v>
       </c>
-      <c r="J479" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17051,14 +16703,12 @@
         <v>-7596404.422708383</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>3.26</v>
       </c>
-      <c r="J480" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17092,14 +16742,12 @@
         <v>-7326163.227708383</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>3.24</v>
       </c>
-      <c r="J481" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17133,14 +16781,12 @@
         <v>-7675886.092708383</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>3.27</v>
       </c>
-      <c r="J482" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17174,14 +16820,12 @@
         <v>-7403985.949708383</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>3.26</v>
       </c>
-      <c r="J483" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17215,14 +16859,12 @@
         <v>-7403985.949708383</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>3.27</v>
       </c>
-      <c r="J484" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17256,14 +16898,12 @@
         <v>-7403985.949708383</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>3.27</v>
       </c>
-      <c r="J485" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17297,14 +16937,12 @@
         <v>-7744360.808708383</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>3.27</v>
       </c>
-      <c r="J486" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17338,14 +16976,12 @@
         <v>-7744360.808708383</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>3.26</v>
       </c>
-      <c r="J487" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17379,14 +17015,12 @@
         <v>-7664805.135708382</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>3.26</v>
       </c>
-      <c r="J488" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17420,14 +17054,12 @@
         <v>-7802862.181708382</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>3.27</v>
       </c>
-      <c r="J489" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17461,14 +17093,12 @@
         <v>-7802046.221708382</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>3.26</v>
       </c>
-      <c r="J490" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17502,14 +17132,12 @@
         <v>-7802046.221708382</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>3.27</v>
       </c>
-      <c r="J491" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17543,14 +17171,12 @@
         <v>-7802046.221708382</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>3.27</v>
       </c>
-      <c r="J492" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17584,14 +17210,12 @@
         <v>-8135536.675708382</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>3.27</v>
       </c>
-      <c r="J493" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17625,14 +17249,12 @@
         <v>-8135536.675708382</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>3.26</v>
       </c>
-      <c r="J494" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17666,14 +17288,12 @@
         <v>-7869714.659708383</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>3.26</v>
       </c>
-      <c r="J495" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17707,14 +17327,12 @@
         <v>-7869714.659708383</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>3.27</v>
       </c>
-      <c r="J496" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17748,14 +17366,12 @@
         <v>-8105200.578708382</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>3.27</v>
       </c>
-      <c r="J497" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17789,14 +17405,12 @@
         <v>-8105200.578708382</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>3.26</v>
       </c>
-      <c r="J498" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17830,14 +17444,12 @@
         <v>-8105200.578708382</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>3.26</v>
       </c>
-      <c r="J499" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17871,14 +17483,12 @@
         <v>-7784415.920708383</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>3.26</v>
       </c>
-      <c r="J500" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17912,14 +17522,12 @@
         <v>-7784415.920708383</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>3.27</v>
       </c>
-      <c r="J501" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17953,14 +17561,12 @@
         <v>-8083490.380708382</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>3.27</v>
       </c>
-      <c r="J502" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17994,14 +17600,12 @@
         <v>-8083490.380708382</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>3.26</v>
       </c>
-      <c r="J503" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18035,14 +17639,12 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>3.26</v>
       </c>
-      <c r="J504" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18076,14 +17678,12 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>3.27</v>
       </c>
-      <c r="J505" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18117,14 +17717,12 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>3.27</v>
       </c>
-      <c r="J506" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18158,14 +17756,12 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I507" t="n">
         <v>3.27</v>
       </c>
-      <c r="J507" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18199,14 +17795,12 @@
         <v>-8273109.134708382</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I508" t="n">
         <v>3.27</v>
       </c>
-      <c r="J508" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18240,14 +17834,12 @@
         <v>-8273109.134708382</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I509" t="n">
         <v>3.26</v>
       </c>
-      <c r="J509" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18281,14 +17873,12 @@
         <v>-7951994.897708382</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>3.26</v>
       </c>
-      <c r="J510" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18322,14 +17912,12 @@
         <v>-8270341.584708382</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>3.27</v>
       </c>
-      <c r="J511" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18363,14 +17951,12 @@
         <v>-7983448.425708382</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>3.26</v>
       </c>
-      <c r="J512" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18404,14 +17990,12 @@
         <v>-8239570.471708382</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>3.27</v>
       </c>
-      <c r="J513" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18445,14 +18029,12 @@
         <v>-8239570.471708382</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>3.26</v>
       </c>
-      <c r="J514" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18486,12 +18068,12 @@
         <v>-8239570.471708382</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18525,12 +18107,12 @@
         <v>-7966769.100708382</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18564,12 +18146,12 @@
         <v>-7966769.100708382</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18606,9 +18188,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18645,9 +18225,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18684,9 +18262,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18723,9 +18299,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18759,14 +18333,10 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J522" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18800,12 +18370,12 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18839,14 +18409,10 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J524" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18880,12 +18446,12 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>3.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18922,9 +18488,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>3.27</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18936,6 +18500,6 @@
       <c r="M526" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest DAC.xlsx
+++ b/BackTest/2019-10-31 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>287917.752</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>287917.752</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>287917.752</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>287917.752</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>287917.752</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>287917.752</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>287917.752</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>287917.752</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>287917.752</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>287917.752</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>287917.752</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>287917.752</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>287917.752</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>287917.752</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>287917.752</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>287917.752</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>287917.752</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-20535.95600000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>259254.682</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-38226.03600000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>272674.605</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>532235.26</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>421523.485</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>135582.609</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>372549.757</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>399021.443</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>399021.443</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>399021.443</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-258712.727</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-13906.01800000001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-145876.2432999999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>206080.8947</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>69203.24470000001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>69203.24470000001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1556.870700000029</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1556.870700000029</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>476739.5667</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-58531.00829999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>303508.3776000001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1583831.8012</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1734486.0222</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1512647.7112</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1710531.5691</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1575830.9001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1705635.0661</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1535164.3541</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1622742.1381</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1340684.4571</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1606439.6751</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1606439.6751</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1345086.1531</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1549976.2271</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1549976.2271</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1379404.6508</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1379404.6508</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1379394.6508</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1659023.7188</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1664902.5688</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1852816.5929</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1962816.5929</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1962816.5929</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1962805.5929</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1779979.6161</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-1799979.6161</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1799979.6161</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1976942.607</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1976942.607</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-1976932.607</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2084580.948</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2084580.948</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2262341.016</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2262341.016</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2262341.016</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2198502.4952</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2199571.0293</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2806276.9408</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2541059.706799999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-2719718.086199999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2462550.899199999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-2615433.1562</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-3006893.5285</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-3006893.5285</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2639543.294799999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-3035278.812008382</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-3316792.360008382</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-3629090.079008382</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-3381472.844008382</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-3704496.293008382</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-3955419.410008382</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-3807821.061008382</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-3643049.477908383</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-3643049.477908383</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-3900158.788908383</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-3474078.977908383</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-3850579.492608383</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-5867033.041108385</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-5532289.036408384</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-5519305.386408384</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-5519295.386408384</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-5519303.682408384</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-5539303.682408384</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-5539293.682408384</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-5569293.682408384</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-6563504.368808384</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-6563494.368808384</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13024,14 +13024,10 @@
         <v>-6825324.542108384</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="J383" t="n">
-        <v>3.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
@@ -13064,14 +13060,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13103,14 +13093,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13271,17 +13255,11 @@
         <v>-7022263.597108384</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>3.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13314,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13347,15 +13321,11 @@
         <v>-7508126.299108384</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13388,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13425,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13462,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13495,15 +13453,11 @@
         <v>-7490916.655108384</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13536,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13573,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13610,11 +13556,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13643,15 +13585,11 @@
         <v>-7438007.498108384</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13721,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13758,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13791,15 +13717,11 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13828,15 +13750,11 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13865,15 +13783,11 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13906,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13943,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14017,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14054,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14087,15 +13981,11 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14124,15 +14014,11 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14161,15 +14047,11 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14202,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14239,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14276,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14313,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14350,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14387,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14424,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14461,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14498,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14535,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14572,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14609,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14646,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14679,15 +14509,11 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14716,15 +14542,11 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14753,17 +14575,11 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14792,17 +14608,11 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>3.27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14831,17 +14641,11 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>3.27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14870,17 +14674,11 @@
         <v>-7307078.455508383</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>3.27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14909,17 +14707,11 @@
         <v>-7311658.348308383</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>3.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14948,17 +14740,11 @@
         <v>-7311658.348308383</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14987,17 +14773,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15026,17 +14806,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15065,17 +14839,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15104,17 +14872,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15143,17 +14905,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15182,17 +14938,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15221,17 +14971,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15260,17 +15004,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15299,17 +15037,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15338,17 +15070,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15377,17 +15103,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15416,17 +15136,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15455,17 +15169,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15499,12 +15207,10 @@
       <c r="I449" t="n">
         <v>3.27</v>
       </c>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15533,15 +15239,15 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J450" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L450" t="n">
@@ -15572,15 +15278,15 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J451" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L451" t="n">
@@ -15611,17 +15317,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15650,17 +15350,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15689,17 +15383,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15728,17 +15416,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15767,17 +15449,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15806,17 +15482,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15845,17 +15515,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15884,17 +15548,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15923,17 +15581,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15962,17 +15614,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16001,17 +15647,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16040,17 +15680,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16079,17 +15713,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16118,17 +15746,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16157,17 +15779,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16196,17 +15812,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16235,17 +15845,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16274,17 +15878,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16313,17 +15911,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16352,17 +15944,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16391,17 +15977,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16430,17 +16010,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16469,17 +16043,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>3.27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16508,17 +16076,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16547,17 +16109,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16586,17 +16142,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16625,17 +16175,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16672,7 +16216,7 @@
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L479" t="n">
@@ -16937,11 +16481,9 @@
         <v>-7744360.808708383</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -17717,11 +17259,9 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17756,11 +17296,9 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17795,11 +17333,9 @@
         <v>-8273109.134708382</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -18296,9 +17832,11 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>3.26</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18370,11 +17908,9 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18446,11 +17982,9 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>3.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18500,6 +18034,6 @@
       <c r="M526" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest DAC.xlsx
+++ b/BackTest/2019-10-31 BackTest DAC.xlsx
@@ -451,7 +451,7 @@
         <v>287917.752</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>287917.752</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-145876.2432999999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-7293.231299999985</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>206080.8947</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>69203.24470000001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>69203.24470000001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>310277.9087</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1556.870700000029</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1556.870700000029</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>476739.5667</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-58531.00829999999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>303508.3776000001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1583831.8012</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1734486.0222</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1512647.7112</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1560120.3942</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1421873.0132</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-1682376.7772</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1901901.8601</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1901901.8601</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1575358.9431</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1847767.6101</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-1710531.5691</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1414817.4741</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1575830.9001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1705635.0661</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1535164.3541</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1622742.1381</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1606439.6751</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1345086.1531</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1549976.2271</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1379404.6508</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1379404.6508</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1379394.6508</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-1662809.7629</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-1659033.7188</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-1659023.7188</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-1664902.5688</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1660177.1069</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-1660177.1069</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-1852826.5929</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-1852816.5929</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-1962816.5929</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-1962816.5929</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-1962805.5929</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-1779979.6161</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-1799979.6161</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-1976942.607</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1976942.607</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2199571.0293</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2208895.5745</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2806276.9408</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2541059.706799999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-3035278.812008382</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-3316792.360008382</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-3629090.079008382</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-3381472.844008382</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-3704496.293008382</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-3955419.410008382</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-3807821.061008382</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-3643049.477908383</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-3643049.477908383</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-3900158.788908383</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-3474078.977908383</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-3850579.492608383</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-5867033.041108385</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-5532289.036408384</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-5519305.386408384</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-5519295.386408384</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-5519303.682408384</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-5539303.682408384</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-5539293.682408384</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-5569293.682408384</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-6563504.368808384</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-6563494.368808384</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-7508126.299108384</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-7490916.655108384</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-7438007.498108384</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-6947669.736108384</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-7096873.167108384</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-7034214.161508383</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-7307078.455508383</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,10 +14707,14 @@
         <v>-7311658.348308383</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J434" t="n">
+        <v>3.25</v>
+      </c>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
@@ -14740,11 +14744,19 @@
         <v>-7311658.348308383</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J435" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14785,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="J436" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14872,10 +14892,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J439" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
@@ -14905,11 +14929,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J440" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +14970,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J441" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,10 +15011,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J442" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
@@ -15004,11 +15048,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J443" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15040,8 +15092,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15103,10 +15161,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J446" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
@@ -15136,11 +15198,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J447" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +15239,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J448" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15239,9 +15317,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>3.27</v>
+      </c>
       <c r="J450" t="n">
         <v>3.27</v>
       </c>
@@ -15278,9 +15358,11 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>3.27</v>
+      </c>
       <c r="J451" t="n">
         <v>3.27</v>
       </c>
@@ -15317,10 +15399,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J452" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
@@ -15350,11 +15436,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J453" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15383,11 +15477,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J454" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15416,10 +15518,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J455" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
@@ -15449,11 +15555,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J456" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15482,11 +15596,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J457" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15515,10 +15637,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J458" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
@@ -15548,11 +15674,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J459" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15581,11 +15715,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J460" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15614,10 +15756,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J461" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
@@ -15647,11 +15793,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J462" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15680,11 +15834,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J463" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15713,10 +15875,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J464" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
@@ -15746,11 +15912,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J465" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15779,11 +15953,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J466" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15812,10 +15994,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J467" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
@@ -15845,11 +16031,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J468" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15878,11 +16072,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J469" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15911,10 +16113,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J470" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
@@ -15944,11 +16150,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J471" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15977,11 +16191,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J472" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16010,10 +16232,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J473" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
@@ -16043,11 +16269,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J474" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16076,11 +16310,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J475" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16109,10 +16351,14 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J476" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
@@ -16142,11 +16388,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J477" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16175,11 +16429,19 @@
         <v>-7001147.030308383</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J478" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16213,7 +16475,9 @@
       <c r="I479" t="n">
         <v>3.27</v>
       </c>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -16252,7 +16516,9 @@
       <c r="I480" t="n">
         <v>3.26</v>
       </c>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16291,7 +16557,9 @@
       <c r="I481" t="n">
         <v>3.24</v>
       </c>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16330,7 +16598,9 @@
       <c r="I482" t="n">
         <v>3.27</v>
       </c>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16369,7 +16639,9 @@
       <c r="I483" t="n">
         <v>3.26</v>
       </c>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16408,7 +16680,9 @@
       <c r="I484" t="n">
         <v>3.27</v>
       </c>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16447,7 +16721,9 @@
       <c r="I485" t="n">
         <v>3.27</v>
       </c>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16481,10 +16757,14 @@
         <v>-7744360.808708383</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J486" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16523,7 +16803,9 @@
       <c r="I487" t="n">
         <v>3.26</v>
       </c>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16562,7 +16844,9 @@
       <c r="I488" t="n">
         <v>3.26</v>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16601,7 +16885,9 @@
       <c r="I489" t="n">
         <v>3.27</v>
       </c>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16640,7 +16926,9 @@
       <c r="I490" t="n">
         <v>3.26</v>
       </c>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16679,7 +16967,9 @@
       <c r="I491" t="n">
         <v>3.27</v>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16718,7 +17008,9 @@
       <c r="I492" t="n">
         <v>3.27</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16757,7 +17049,9 @@
       <c r="I493" t="n">
         <v>3.27</v>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16796,7 +17090,9 @@
       <c r="I494" t="n">
         <v>3.26</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16835,7 +17131,9 @@
       <c r="I495" t="n">
         <v>3.26</v>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16874,7 +17172,9 @@
       <c r="I496" t="n">
         <v>3.27</v>
       </c>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16913,7 +17213,9 @@
       <c r="I497" t="n">
         <v>3.27</v>
       </c>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16952,7 +17254,9 @@
       <c r="I498" t="n">
         <v>3.26</v>
       </c>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16991,7 +17295,9 @@
       <c r="I499" t="n">
         <v>3.26</v>
       </c>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17030,7 +17336,9 @@
       <c r="I500" t="n">
         <v>3.26</v>
       </c>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17069,7 +17377,9 @@
       <c r="I501" t="n">
         <v>3.27</v>
       </c>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17108,7 +17418,9 @@
       <c r="I502" t="n">
         <v>3.27</v>
       </c>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17147,7 +17459,9 @@
       <c r="I503" t="n">
         <v>3.26</v>
       </c>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17186,7 +17500,9 @@
       <c r="I504" t="n">
         <v>3.26</v>
       </c>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17225,7 +17541,9 @@
       <c r="I505" t="n">
         <v>3.27</v>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17259,10 +17577,14 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J506" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17296,10 +17618,14 @@
         <v>-8009624.158708382</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J507" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17333,10 +17659,14 @@
         <v>-8273109.134708382</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J508" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17375,7 +17705,9 @@
       <c r="I509" t="n">
         <v>3.26</v>
       </c>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17414,7 +17746,9 @@
       <c r="I510" t="n">
         <v>3.26</v>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17453,7 +17787,9 @@
       <c r="I511" t="n">
         <v>3.27</v>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17492,7 +17828,9 @@
       <c r="I512" t="n">
         <v>3.26</v>
       </c>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17531,7 +17869,9 @@
       <c r="I513" t="n">
         <v>3.27</v>
       </c>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17570,7 +17910,9 @@
       <c r="I514" t="n">
         <v>3.26</v>
       </c>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17609,7 +17951,9 @@
       <c r="I515" t="n">
         <v>3.26</v>
       </c>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17648,7 +17992,9 @@
       <c r="I516" t="n">
         <v>3.26</v>
       </c>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17687,7 +18033,9 @@
       <c r="I517" t="n">
         <v>3.27</v>
       </c>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17721,10 +18069,14 @@
         <v>-7966769.100708382</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J518" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17758,10 +18110,14 @@
         <v>-7966769.100708382</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J519" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17795,10 +18151,14 @@
         <v>-8219623.812708382</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J520" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17837,7 +18197,9 @@
       <c r="I521" t="n">
         <v>3.26</v>
       </c>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17871,10 +18233,14 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J522" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17911,7 +18277,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17945,10 +18313,14 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J524" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17982,10 +18354,14 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J525" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18019,10 +18395,14 @@
         <v>-7965210.368708382</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J526" t="n">
+        <v>3.27</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
